--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nath\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarquNa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFF9B8B6-0258-466C-9A16-1EA2F60D25BB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E27776BD-B257-4F9C-A155-9D98C68BF1DA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9398" xr2:uid="{DD087D8F-3B3C-490A-B260-720C64C44BF0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{DD087D8F-3B3C-490A-B260-720C64C44BF0}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Items to Purchase</t>
   </si>
@@ -76,6 +70,12 @@
   </si>
   <si>
     <t>BOM Reversion:</t>
+  </si>
+  <si>
+    <t>P/DNP=</t>
+  </si>
+  <si>
+    <t>Place/Do Not Place Component</t>
   </si>
 </sst>
 </file>
@@ -124,22 +124,28 @@
     </font>
     <font>
       <b/>
-      <sz val="30"/>
+      <sz val="35"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -147,12 +153,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -167,7 +225,20 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -483,80 +554,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CD3F15-7268-400A-87AB-1C5A6892DF8B}">
-  <dimension ref="A1:L503"/>
+  <dimension ref="A1:N503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.53125" customWidth="1"/>
-    <col min="2" max="2" width="19.265625" customWidth="1"/>
-    <col min="3" max="3" width="17.46484375" customWidth="1"/>
-    <col min="4" max="4" width="14.265625" customWidth="1"/>
-    <col min="5" max="5" width="14.9296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.53125" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="9" max="9" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="38.25" x14ac:dyDescent="1.1000000000000001">
+    <row r="1" spans="1:14" ht="45.6" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="D3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:14" s="7" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -573,7 +667,7 @@
       </c>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -590,7 +684,7 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -607,7 +701,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -624,7 +718,7 @@
       </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -641,7 +735,7 @@
       </c>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -658,7 +752,7 @@
       </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -675,7 +769,7 @@
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -692,7 +786,7 @@
       </c>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -709,7 +803,7 @@
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -726,7 +820,7 @@
       </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -743,7 +837,7 @@
       </c>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -760,7 +854,7 @@
       </c>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -777,7 +871,7 @@
       </c>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -794,7 +888,7 @@
       </c>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -811,7 +905,7 @@
       </c>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -828,7 +922,7 @@
       </c>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -845,7 +939,7 @@
       </c>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -862,7 +956,7 @@
       </c>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -879,7 +973,7 @@
       </c>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -896,7 +990,7 @@
       </c>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -913,7 +1007,7 @@
       </c>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -930,7 +1024,7 @@
       </c>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -947,7 +1041,7 @@
       </c>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -964,7 +1058,7 @@
       </c>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -981,7 +1075,7 @@
       </c>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -998,7 +1092,7 @@
       </c>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1015,7 +1109,7 @@
       </c>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1032,7 +1126,7 @@
       </c>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1049,7 +1143,7 @@
       </c>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1066,7 +1160,7 @@
       </c>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1083,7 +1177,7 @@
       </c>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1100,7 +1194,7 @@
       </c>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1110,2797 +1204,2800 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K39" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K40" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K41" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K42" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K43" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K44" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K45" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K46" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K47" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K48" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K49" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K50" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K51" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K52" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="53" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K53" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="54" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K54" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="55" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K55" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="56" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K56" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="57" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K57" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="58" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K58" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="59" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K59" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="60" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K60" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="61" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K61" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="62" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K62" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="63" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K63" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="64" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K64" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K65" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K66" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K67" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="68" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K68" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="69" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K69" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="70" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K70" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="71" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K71" s="5">
         <f t="shared" ref="K71:K134" si="1">H71+J71</f>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K72" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K73" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K74" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="75" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K75" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="76" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K76" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="77" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K77" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="78" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K78" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="79" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K79" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="80" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K80" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="81" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K81" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="82" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K82" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="83" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K83" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="84" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K84" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="85" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K85" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="86" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K86" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="87" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K87" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="88" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K88" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="89" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K89" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="90" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K90" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="91" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K91" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="92" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K92" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="93" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K93" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="94" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K94" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="95" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K95" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="96" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K96" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="97" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K97" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="98" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K98" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="99" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K99" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="100" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K100" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="101" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K101" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="102" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K102" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="103" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K103" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="104" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K104" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="105" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K105" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="106" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K106" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="107" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K107" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="108" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K108" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="109" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K109" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="110" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K110" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="111" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K111" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="112" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K112" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="113" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K113" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="114" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K114" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="115" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K115" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="116" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K116" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="117" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K117" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="118" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K118" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="119" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K119" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="120" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K120" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="121" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K121" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="122" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K122" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="123" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K123" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="124" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K124" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="125" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K125" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="126" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K126" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="127" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K127" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="128" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K128" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="129" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K129" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="130" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K130" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="131" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K131" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="132" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K132" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="133" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K133" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="134" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K134" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="135" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K135" s="5">
         <f t="shared" ref="K135:K198" si="2">H135+J135</f>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="136" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K136" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="137" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K137" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="138" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K138" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="139" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K139" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="140" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K140" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="141" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K141" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="142" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K142" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="143" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K143" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="144" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K144" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="145" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K145" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="146" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K146" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="147" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K147" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="148" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K148" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="149" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K149" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="150" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K150" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="151" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K151" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="152" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K152" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="153" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K153" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="154" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K154" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="155" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K155" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="156" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K156" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="157" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K157" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="158" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K158" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="159" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K159" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="160" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K160" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="161" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K161" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="162" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K162" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="163" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K163" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="164" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K164" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="165" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K165" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="166" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K166" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="167" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K167" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="168" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K168" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="169" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K169" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="170" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K170" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="171" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K171" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="172" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K172" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="173" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K173" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="174" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K174" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="175" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K175" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="176" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K176" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="177" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K177" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="178" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K178" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="179" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K179" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="180" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K180" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="181" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K181" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="182" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K182" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="183" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K183" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="184" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K184" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="185" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K185" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="186" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K186" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="187" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K187" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="188" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K188" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="189" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K189" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="190" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K190" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="191" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K191" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="192" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K192" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="193" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K193" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="194" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K194" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="195" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K195" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="196" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K196" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="197" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K197" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="198" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K198" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="199" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K199" s="5">
         <f t="shared" ref="K199:K262" si="3">H199+J199</f>
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="200" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K200" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="201" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K201" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="202" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K202" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="203" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K203" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="204" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K204" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="205" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K205" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="206" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K206" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="207" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K207" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="208" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K208" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="209" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K209" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="210" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K210" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="211" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K211" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="212" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K212" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="213" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K213" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="214" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K214" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="215" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K215" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="216" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K216" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="217" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K217" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="218" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K218" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="219" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K219" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="220" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K220" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="221" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K221" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="222" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K222" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="223" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K223" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="224" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K224" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="225" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K225" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="226" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K226" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="227" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K227" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="228" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K228" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="229" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K229" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="230" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K230" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="231" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K231" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="232" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K232" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="233" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K233" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="234" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K234" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="235" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K235" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="236" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K236" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="237" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K237" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="238" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K238" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="239" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K239" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="240" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K240" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="241" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K241" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="242" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K242" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="243" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K243" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="244" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K244" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="245" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K245" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="246" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K246" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="247" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K247" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="248" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K248" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="249" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K249" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="250" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K250" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="251" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K251" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="252" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K252" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="253" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K253" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="254" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K254" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="255" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K255" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="256" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K256" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="257" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K257" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="258" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K258" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="259" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K259" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="260" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K260" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="261" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K261" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="262" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K262" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="263" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K263" s="5">
         <f t="shared" ref="K263:K281" si="4">H263+J263</f>
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="264" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K264" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="265" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K265" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="266" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K266" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="267" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K267" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="268" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K268" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="269" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K269" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="270" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K270" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="271" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K271" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="272" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K272" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="273" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K273" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="274" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K274" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="275" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K275" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="276" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K276" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="277" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K277" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="278" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K278" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="279" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K279" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="280" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K280" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="281" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K281" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="282" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K282" s="5">
         <f>H282+J282</f>
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="283" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K283" s="5">
         <f t="shared" ref="K283:K346" si="5">H283+J283</f>
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="284" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K284" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="285" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K285" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="286" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K286" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="287" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K287" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="288" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K288" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="289" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K289" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="290" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K290" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="291" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K291" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="292" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K292" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="293" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K293" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="294" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K294" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="295" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K295" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="296" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K296" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="297" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K297" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="298" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K298" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="299" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K299" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="300" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K300" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="301" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K301" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="302" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K302" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="303" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K303" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="304" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K304" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="305" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K305" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="306" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K306" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="307" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K307" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="308" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K308" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="309" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K309" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="310" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K310" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="311" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K311" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="312" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K312" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="313" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K313" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="314" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K314" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="315" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K315" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="316" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K316" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="317" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K317" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="318" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K318" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="319" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K319" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="320" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K320" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="321" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K321" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="322" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K322" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="323" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K323" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="324" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K324" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="325" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K325" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="326" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K326" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="327" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K327" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="328" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K328" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="329" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K329" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="330" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K330" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="331" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K331" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="332" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K332" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="333" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K333" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="334" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K334" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="335" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K335" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="336" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K336" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="337" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K337" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="338" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K338" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="339" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K339" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="340" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K340" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="341" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K341" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="342" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K342" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="343" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K343" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="344" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K344" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="345" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K345" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="346" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K346" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="347" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K347" s="5">
         <f t="shared" ref="K347:K410" si="6">H347+J347</f>
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="348" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K348" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="349" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K349" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="350" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K350" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="351" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K351" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="352" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K352" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="353" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K353" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="354" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K354" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="355" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K355" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="356" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K356" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="357" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K357" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="358" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K358" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="359" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K359" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="360" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K360" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="361" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K361" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="362" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K362" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="363" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K363" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="364" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K364" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="365" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K365" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="366" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K366" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="367" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K367" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="368" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K368" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="369" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K369" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="370" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K370" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="371" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K371" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="372" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K372" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="373" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K373" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="374" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K374" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="375" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K375" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="376" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K376" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="377" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K377" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="378" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K378" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="379" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K379" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="380" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K380" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="381" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K381" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="382" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K382" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="383" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K383" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="384" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K384" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="385" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K385" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="386" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K386" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="387" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K387" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="388" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K388" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="389" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K389" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="390" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K390" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="391" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K391" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="392" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K392" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="393" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K393" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="394" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K394" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="395" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K395" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="396" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K396" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="397" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K397" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="398" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K398" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="399" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K399" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="400" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K400" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="401" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K401" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="402" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K402" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="403" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K403" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="404" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K404" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="405" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K405" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="406" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K406" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="407" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K407" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="408" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K408" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="409" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K409" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="410" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K410" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="411" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K411" s="5">
         <f t="shared" ref="K411:K474" si="7">H411+J411</f>
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="412" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K412" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="413" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K413" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="414" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K414" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="415" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K415" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="416" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K416" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="417" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K417" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="418" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K418" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="419" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K419" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="420" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K420" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="421" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K421" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="422" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K422" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="423" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K423" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="424" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K424" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="425" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K425" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="426" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K426" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="427" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K427" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="428" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K428" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="429" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K429" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="430" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K430" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="431" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K431" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="432" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K432" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="433" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K433" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="434" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K434" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="435" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K435" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="436" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K436" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="437" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K437" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="438" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K438" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="439" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K439" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="440" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K440" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="441" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K441" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="442" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K442" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="443" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K443" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="444" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K444" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="445" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K445" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="446" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K446" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="447" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K447" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="448" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K448" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="449" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K449" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="450" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K450" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="451" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K451" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="452" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K452" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="453" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K453" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="454" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K454" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="455" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K455" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="456" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K456" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="457" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K457" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="458" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K458" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="459" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K459" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="460" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K460" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="461" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K461" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="462" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K462" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="463" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K463" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="464" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K464" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="465" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K465" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="466" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K466" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="467" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K467" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="468" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K468" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="469" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K469" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="470" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K470" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="471" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K471" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="472" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K472" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="473" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K473" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="474" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K474" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="475" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K475" s="5">
         <f t="shared" ref="K475:K503" si="8">H475+J475</f>
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="476" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K476" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="477" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K477" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="478" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K478" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="479" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K479" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="480" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K480" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="481" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K481" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="482" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K482" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="483" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K483" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="484" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K484" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="485" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K485" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="486" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K486" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="487" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K487" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="488" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K488" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="489" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K489" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="490" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K490" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="491" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K491" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="492" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K492" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="493" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K493" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="494" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K494" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="495" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K495" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="496" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K496" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="497" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K497" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="498" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K498" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="499" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K499" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="500" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K500" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="501" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K501" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="502" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K502" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="503" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K503" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
